--- a/data_craw/quarter/cash_flow_quarter/bid.xlsx
+++ b/data_craw/quarter/cash_flow_quarter/bid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1. Lợi nhuận trước thuế</t>
+          <t>1. Tiền thu từ bán hàng, cung cấp dịch vụ và doanh thu khác</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -569,7 +569,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2. Điều chỉnh cho các khoản</t>
+          <t>2. Tiền chi trả cho người cung cấp hàng hóa và dịch vụ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -592,7 +592,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>- Khấu hao TSCĐ và BĐSĐT</t>
+          <t>3. Tiền chi trả cho người lao động</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -615,7 +615,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>- Các khoản dự phòng</t>
+          <t>4. Tiền lãi vay đã trả</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -638,7 +638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>- Lãi, lỗ chênh lệch tỷ giá hối đoái do đánh giá lại các khoản mục tiền tệ có gốc ngoại tệ</t>
+          <t>5. Thuế thu nhập doanh nghiệp đã nộp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -661,7 +661,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>- Lãi, lỗ từ hoạt động đầu tư</t>
+          <t>6. Tiền thu khác từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -684,7 +684,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>- Chi phí lãi vay</t>
+          <t>7. Tiền chi khác cho hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -707,21 +707,45 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>- Các khoản điều chỉnh khác</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+          <t>Lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>27134000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>466850000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2958211000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-251769000000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>865406000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1405445000000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-120258000000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-158059000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>72282000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1112371000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-121591000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-397571000000</v>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -730,7 +754,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3. Lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>II. Lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -753,19 +777,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>- Tăng, giảm các khoản phải thu</t>
+          <t>1.Tiền chi để mua sắm, xây dựng TSCĐ và các tài sản dài hạn khác</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1281608000000</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>14923000000</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1778926000000</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -776,21 +806,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>- Tăng, giảm hàng tồn kho</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>2.Tiền thu từ thanh lý, nhượng bán TSCĐ và các tài sản dài hạn khác</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-337777000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2451983000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-275653000000</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-1853102000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2238027000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3229246000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2271073000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3381148000000</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>-311409000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>271954000000</v>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -799,19 +849,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>- Tăng, giảm các khoản phải trả (Không kể lãi vay phải trả, thuế thu nhập doanh nghiệp phải nộp)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+          <t>3.Tiền chi cho vay, mua các công cụ nợ của đơn vị khác</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-198000000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-198000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-148457000000</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>-895000000</v>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-980000000</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -822,21 +882,45 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>- Tăng, giảm chi phí trả trước</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>4.Tiền thu hồi cho vay, bán lại các công cụ nợ của đơn vị khác</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-47648087000000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-67951343000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>52492863000000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>46547804000000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>47635925000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>69654789000000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15322813000000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>57543861000000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>90389897000000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>133338032000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-84390513000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-89557886000000</v>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -845,21 +929,45 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>- Tăng, giảm chứng khoán kinh doanh</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+          <t>5.Tiền chi đầu tư góp vốn vào đơn vị khác</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-770682000000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1061633000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-161256000000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-498900000000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-630555000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1856904000000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-216078000000</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-463872000000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-626716000000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1032924000000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-207725000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1352199000000</v>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -868,21 +976,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>- Tiền lãi vay đã trả</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+          <t>6.Tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3984000000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8545000000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>776000000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3473000000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4378000000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8376000000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>908000000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1800000000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6594000000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9868000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>585000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1842000000</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -891,21 +1023,45 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>- Thuế thu nhập doanh nghiệp đã nộp</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+          <t>7.Tiền thu lãi cho vay, cổ tức và lợi nhuận được chia</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-465000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1154000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-49000000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-145000000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-358000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-4944000000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-22000000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-114000000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-817000000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-1585000000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-31000000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-178000000</v>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
@@ -914,7 +1070,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>- Tiền thu khác từ hoạt động kinh doanh</t>
+          <t>Lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -937,7 +1093,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>- Tiền chi khác cho hoạt động kinh doanh</t>
+          <t>III. Lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -960,18 +1116,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>1.Tiền thu từ phát hành cổ phiếu, nhận vốn góp của chủ sở hữu</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-817000000</v>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>-51599000000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-53725000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-53725000000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-53725000000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-933000000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-933000000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-933000000</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -983,7 +1155,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>II. Lưu chuyển tiền từ hoạt động đầu tư</t>
+          <t>2. Tiền trả lại vốn góp cho các chủ sở hữu, mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -991,8 +1163,12 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>88441000000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2926000000</v>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1006,21 +1182,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.Tiền chi để mua sắm, xây dựng TSCĐ và các tài sản dài hạn khác</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+          <t>3.Tiền thu từ đi vay</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>128048000000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>134987000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>573000000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>42685000000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>51306000000</v>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>81571000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>87923000000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>165566000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>43941000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>94173000000</v>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -1029,21 +1225,45 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2.Tiền thu từ thanh lý, nhượng bán TSCĐ và các tài sản dài hạn khác</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+          <t>4.Tiền chi trả nợ gốc vay</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-639932000000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-919255000000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-211555000000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-506612000000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-628954000000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1818756000000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-213199000000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-381548000000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-533949000000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-859075000000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-163230000000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-1256362000000</v>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -1052,7 +1272,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3.Tiền chi cho vay, mua các công cụ nợ của đơn vị khác</t>
+          <t>5.Tiền chi trả nợ thuê tài chính</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1075,7 +1295,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4.Tiền thu hồi cho vay, bán lại các công cụ nợ của đơn vị khác</t>
+          <t>6. Cổ tức, lợi nhuận đã trả cho chủ sở hữu</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1098,7 +1318,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5.Tiền chi đầu tư góp vốn vào đơn vị khác</t>
+          <t>7. Tiền thu từ vốn góp của cổ đông không kiểm soát</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1121,7 +1341,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6.Tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
+          <t>Lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1144,7 +1364,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7.Tiền thu lãi cho vay, cổ tức và lợi nhuận được chia</t>
+          <t>Lưu chuyển tiền thuần trong kỳ (50 = 20+30+40)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1167,7 +1387,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>Tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1190,7 +1410,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>III. Lưu chuyển tiền từ hoạt động tài chính</t>
+          <t>Ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1213,7 +1433,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1.Tiền thu từ phát hành cổ phiếu, nhận vốn góp của chủ sở hữu</t>
+          <t>Tiền và tương đương tiền cuối kỳ (70 = 50+60+61)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1233,259 +1453,6 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2.Tiền trả lại vón góp cho các chủ sở hữu, mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>3.Tiền thu từ đi vay</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>4.Tiền chi trả nợ gốc vay</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>5.Tiền chi trả nợ gốc thuê tài chính</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>6. Cổ tức, lợi nhuận đã trả cho chủ sở hữu</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>7. Tiền thu từ vốn góp của cổ đông không kiểm soát</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Lưu chuyển tiền thuần từ hoạt động tài chính</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Lưu chuyển tiền thuần trong kỳ (50 = 20+30+40)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tiền và tương đương tiền đầu kỳ</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Tiền và tương đương tiền cuối kỳ (70 = 50+60+61)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
